--- a/xls/kiangExcel.xlsx
+++ b/xls/kiangExcel.xlsx
@@ -463,13 +463,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -830,6 +823,13 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -844,17 +844,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表17" displayName="表17" ref="C4:J8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表17" displayName="表17" ref="C4:J8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="C4:J8"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="索引" dataDxfId="8"/>
-    <tableColumn id="2" name="类型" dataDxfId="7"/>
-    <tableColumn id="7" name="id" dataDxfId="6"/>
-    <tableColumn id="3" name="数量" dataDxfId="5"/>
-    <tableColumn id="4" name="质量" dataDxfId="4"/>
-    <tableColumn id="5" name="强度？" dataDxfId="3"/>
-    <tableColumn id="6" name="绑定？" dataDxfId="2"/>
-    <tableColumn id="8" name="元宝" dataDxfId="1"/>
+    <tableColumn id="1" name="索引" dataDxfId="7"/>
+    <tableColumn id="2" name="类型" dataDxfId="6"/>
+    <tableColumn id="7" name="id" dataDxfId="5"/>
+    <tableColumn id="3" name="数量" dataDxfId="4"/>
+    <tableColumn id="4" name="质量" dataDxfId="3"/>
+    <tableColumn id="5" name="强度？" dataDxfId="2"/>
+    <tableColumn id="6" name="绑定？" dataDxfId="1"/>
+    <tableColumn id="8" name="元宝" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,20 +1151,20 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1365,7 +1365,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G5:I8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
